--- a/data/fact_data/parbhani/Parbhani_Sec_Aug_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Aug_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B3A2E-BBC5-4D4B-B9A0-805AABFD1B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD4FCB5-FB79-154A-9DCA-EEC69337B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Aug</t>
   </si>
   <si>
-    <t>Aug</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>4004</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>968</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>4788</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>22326</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>5928</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2308,13 +2306,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>423</v>
@@ -2365,13 +2363,13 @@
         <v>29610</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>291</v>
@@ -2395,13 +2393,13 @@
         <v>14259</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
@@ -2451,13 +2449,13 @@
         <v>7581</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>17864</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2564,13 +2562,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>5280</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>9600</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -2654,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2666,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -2684,13 +2682,13 @@
         <v>1290</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2696,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2714,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2726,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -2744,13 +2742,13 @@
         <v>807</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2786,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2804,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -2834,13 +2832,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2876,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -2891,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2945,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
         <v>2865</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -3007,13 +3005,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3035,13 @@
         <v>1287</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -3097,13 +3095,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -3127,13 +3125,13 @@
         <v>2368</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3157,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3184,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3198,7 +3196,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3207,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3320,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3346,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -3374,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3402,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3416,7 +3414,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>85</v>
@@ -3430,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3456,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3470,7 +3468,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -3484,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3510,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3524,7 +3522,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3540,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3554,7 +3552,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3570,13 +3568,13 @@
         <v>112</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3584,7 +3582,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>5</v>
@@ -3600,13 +3598,13 @@
         <v>1125</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3630,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3644,7 +3642,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3656,13 +3654,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3678,13 +3676,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3692,7 +3690,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3704,13 +3702,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3718,7 +3716,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3730,13 +3728,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3744,7 +3742,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3753,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3767,7 +3765,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3775,13 +3773,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3789,7 +3787,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>4</v>
@@ -3801,13 +3799,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3815,7 +3813,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3823,13 +3821,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3837,7 +3835,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -3849,13 +3847,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3863,7 +3861,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>8</v>
@@ -3872,13 +3870,13 @@
         <v>15</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3898,9 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3910,31 +3906,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3955,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3985,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4015,13 +4011,13 @@
         <v>6370</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4041,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4067,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4093,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4123,13 +4119,13 @@
         <v>352</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4153,13 +4149,13 @@
         <v>513</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4167,7 +4163,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4179,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4205,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4231,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4261,13 +4257,13 @@
         <v>976</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4287,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4301,7 +4297,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4313,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4336,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>69</v>
@@ -4366,13 +4362,13 @@
         <v>2730</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4380,7 +4376,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>65</v>
@@ -4396,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4422,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4448,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4462,7 +4458,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4474,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4488,7 +4484,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4497,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4527,13 +4523,13 @@
         <v>1276</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4541,7 +4537,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4557,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4585,13 +4581,13 @@
         <v>1200</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4615,13 +4611,13 @@
         <v>480</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4629,7 +4625,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4641,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4655,7 +4651,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4671,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4685,7 +4681,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4699,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4713,7 +4709,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -4729,13 +4725,13 @@
         <v>269</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4743,7 +4739,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4759,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4773,7 +4769,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4789,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4803,7 +4799,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4819,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4849,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4863,7 +4859,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4876,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4902,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4932,13 +4928,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4958,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4972,7 +4968,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4984,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5010,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5036,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5050,7 +5046,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5062,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5076,7 +5072,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5092,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5106,7 +5102,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5122,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5136,7 +5132,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5149,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5163,7 +5159,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5172,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5198,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5224,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5250,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5277,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5291,7 +5287,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5303,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5317,7 +5313,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -5331,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5345,7 +5341,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5357,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5371,7 +5367,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5381,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5395,7 +5391,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5407,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5421,7 +5417,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5431,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5445,7 +5441,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5457,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5471,7 +5467,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5483,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5497,7 +5493,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5509,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5523,7 +5519,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5535,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5549,7 +5545,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5561,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5575,7 +5571,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5583,13 +5579,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5597,7 +5593,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5605,13 +5601,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5619,7 +5615,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5627,13 +5623,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5641,7 +5637,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5649,13 +5645,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5663,18 +5659,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5682,7 +5678,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5690,13 +5686,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5704,7 +5700,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>6</v>
@@ -5716,13 +5712,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5730,7 +5726,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5738,13 +5734,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5752,7 +5748,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -5764,13 +5760,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5778,7 +5774,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -5787,13 +5783,13 @@
         <v>4</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5813,9 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5825,31 +5819,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5866,13 +5860,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5892,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5922,13 +5916,13 @@
         <v>5551</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5948,13 +5942,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5974,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6000,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6030,13 +6024,13 @@
         <v>1760</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6060,13 +6054,13 @@
         <v>1368</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6074,7 +6068,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6090,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6104,7 +6098,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6120,13 +6114,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6146,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6176,13 +6170,13 @@
         <v>5246</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6206,13 +6200,13 @@
         <v>4160</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6220,7 +6214,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6236,13 +6230,13 @@
         <v>343</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6250,7 +6244,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6263,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6277,7 +6271,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>252</v>
@@ -6293,13 +6287,13 @@
         <v>12390</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6307,7 +6301,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>211</v>
@@ -6323,13 +6317,13 @@
         <v>2793</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6337,7 +6331,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6353,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6367,7 +6361,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6383,13 +6377,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6397,7 +6391,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -6413,13 +6407,13 @@
         <v>4333</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6427,7 +6421,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6436,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6466,13 +6460,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6480,7 +6474,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -6496,13 +6490,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6526,13 +6520,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6556,13 +6550,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6570,7 +6564,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -6584,13 +6578,13 @@
         <v>4150</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6598,7 +6592,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6614,13 +6608,13 @@
         <v>860</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6628,7 +6622,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6644,13 +6638,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6658,7 +6652,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -6674,13 +6668,13 @@
         <v>1614</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6688,7 +6682,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -6704,13 +6698,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6718,7 +6712,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6734,13 +6728,13 @@
         <v>2367</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6748,7 +6742,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6764,13 +6758,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6794,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6808,7 +6802,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -6821,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6847,13 +6841,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6877,13 +6871,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6907,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6921,7 +6915,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -6937,13 +6931,13 @@
         <v>504</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6967,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6997,13 +6991,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7011,7 +7005,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -7027,13 +7021,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7041,7 +7035,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -7057,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7071,7 +7065,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7087,13 +7081,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7101,7 +7095,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
@@ -7114,13 +7108,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7128,7 +7122,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7137,13 +7131,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7163,13 +7157,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7193,13 +7187,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7223,13 +7217,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7237,7 +7231,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7250,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7264,7 +7258,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7276,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7290,7 +7284,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>5</v>
@@ -7304,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7318,7 +7312,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7330,13 +7324,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7344,7 +7338,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>16</v>
@@ -7358,13 +7352,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7372,7 +7366,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7384,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7398,7 +7392,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -7412,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7426,7 +7420,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7438,13 +7432,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7452,7 +7446,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7468,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7482,7 +7476,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7498,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7512,7 +7506,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7528,13 +7522,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7542,7 +7536,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7558,13 +7552,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7572,7 +7566,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7584,13 +7578,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7606,13 +7600,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7620,7 +7614,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7632,13 +7626,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7646,7 +7640,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7658,13 +7652,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7672,7 +7666,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7681,13 +7675,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7695,7 +7689,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7703,13 +7697,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7717,7 +7711,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>5</v>
@@ -7729,13 +7723,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7743,7 +7737,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7755,13 +7749,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7769,7 +7763,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -7781,13 +7775,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7795,7 +7789,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
@@ -7804,13 +7798,13 @@
         <v>6</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7830,9 +7824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7841,31 +7833,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7882,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7908,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7938,13 +7930,13 @@
         <v>1456</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7964,13 +7956,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7994,13 +7986,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8020,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8050,13 +8042,13 @@
         <v>1672</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8080,13 +8072,13 @@
         <v>2052</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8094,7 +8086,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8106,13 +8098,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8120,7 +8112,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8132,13 +8124,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8162,13 +8154,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8192,13 +8184,13 @@
         <v>4026</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8222,13 +8214,13 @@
         <v>5928</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8236,7 +8228,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
@@ -8252,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8266,7 +8258,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -8279,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8293,7 +8285,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>182</v>
@@ -8309,13 +8301,13 @@
         <v>6930</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8323,7 +8315,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>181</v>
@@ -8339,13 +8331,13 @@
         <v>7056</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8353,7 +8345,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8365,13 +8357,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8379,7 +8371,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -8395,13 +8387,13 @@
         <v>7581</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8409,7 +8401,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -8425,13 +8417,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8439,7 +8431,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8448,13 +8440,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8478,13 +8470,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8492,7 +8484,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -8508,13 +8500,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8538,13 +8530,13 @@
         <v>1920</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8568,13 +8560,13 @@
         <v>480</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8582,7 +8574,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -8598,13 +8590,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8612,7 +8604,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8628,13 +8620,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8642,7 +8634,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8658,13 +8650,13 @@
         <v>2880</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8672,7 +8664,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -8688,13 +8680,13 @@
         <v>807</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8702,7 +8694,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -8718,13 +8710,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8732,7 +8724,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -8748,13 +8740,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8762,7 +8754,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -8778,13 +8770,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8808,13 +8800,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8822,7 +8814,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -8835,13 +8827,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8861,13 +8853,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8891,13 +8883,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8921,13 +8913,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8935,7 +8927,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8951,13 +8943,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8981,13 +8973,13 @@
         <v>11583</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9009,13 +9001,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9023,7 +9015,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -9037,13 +9029,13 @@
         <v>3810</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9051,7 +9043,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9067,13 +9059,13 @@
         <v>5920</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9081,7 +9073,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9097,13 +9089,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9111,7 +9103,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -9124,13 +9116,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9138,7 +9130,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9147,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9173,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9203,13 +9195,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9233,13 +9225,13 @@
         <v>1115</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9247,7 +9239,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9260,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9274,7 +9266,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9286,13 +9278,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9300,7 +9292,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -9314,13 +9306,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9328,7 +9320,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9340,13 +9332,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9354,7 +9346,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>7</v>
@@ -9368,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9382,7 +9374,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9394,13 +9386,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9408,7 +9400,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9422,13 +9414,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9436,7 +9428,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9448,13 +9440,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9462,7 +9454,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9474,13 +9466,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9488,7 +9480,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9500,13 +9492,13 @@
         <v>1568</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9514,7 +9506,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9526,13 +9518,13 @@
         <v>1125</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9540,7 +9532,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9552,13 +9544,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9566,7 +9558,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9574,13 +9566,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9588,7 +9580,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9596,13 +9588,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9610,7 +9602,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9618,13 +9610,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9632,7 +9624,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9640,13 +9632,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9654,18 +9646,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9673,7 +9665,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9681,13 +9673,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9695,7 +9687,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -9707,13 +9699,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9721,7 +9713,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9729,13 +9721,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9743,7 +9735,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>15</v>
@@ -9755,13 +9747,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9769,7 +9761,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
@@ -9778,13 +9770,13 @@
         <v>16</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9804,9 +9796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9816,31 +9806,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9857,13 +9847,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9883,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9913,13 +9903,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9939,13 +9929,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9965,13 +9955,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9991,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10017,13 +10007,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10043,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10057,7 +10047,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10069,13 +10059,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10083,7 +10073,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10095,13 +10085,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10121,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10151,13 +10141,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10177,13 +10167,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10191,7 +10181,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10203,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10217,7 +10207,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10226,13 +10216,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10240,7 +10230,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10256,13 +10246,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10270,7 +10260,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10282,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10296,7 +10286,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10308,13 +10298,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10322,7 +10312,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10334,13 +10324,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10348,7 +10338,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10360,13 +10350,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10374,7 +10364,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10383,13 +10373,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10411,13 +10401,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10425,7 +10415,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10441,13 +10431,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10471,13 +10461,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10501,13 +10491,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10515,7 +10505,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10527,13 +10517,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10541,7 +10531,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10553,13 +10543,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10567,7 +10557,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10579,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10593,7 +10583,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10605,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10619,7 +10609,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10631,13 +10621,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10645,7 +10635,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10657,13 +10647,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10671,7 +10661,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10683,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10709,13 +10699,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10723,7 +10713,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10732,13 +10722,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10758,13 +10748,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10784,13 +10774,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10810,13 +10800,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10824,7 +10814,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10840,13 +10830,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10866,13 +10856,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10892,13 +10882,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10906,7 +10896,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10918,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10932,7 +10922,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10944,13 +10934,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10958,7 +10948,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10970,13 +10960,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10984,7 +10974,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10993,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11007,7 +10997,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11016,13 +11006,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11042,13 +11032,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11068,13 +11058,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11094,13 +11084,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11108,7 +11098,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11117,13 +11107,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11131,7 +11121,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11143,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11157,7 +11147,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11167,13 +11157,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11181,7 +11171,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11193,13 +11183,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11207,7 +11197,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11217,13 +11207,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11231,7 +11221,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11243,13 +11233,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11257,7 +11247,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11267,13 +11257,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11281,7 +11271,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11293,13 +11283,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11307,7 +11297,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11319,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11333,7 +11323,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11345,13 +11335,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11359,7 +11349,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11371,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11385,7 +11375,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11397,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11411,7 +11401,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11419,13 +11409,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11433,7 +11423,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11441,13 +11431,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11455,7 +11445,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11463,13 +11453,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11477,7 +11467,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11485,13 +11475,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11499,18 +11489,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11518,7 +11508,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11526,13 +11516,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11540,7 +11530,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11548,13 +11538,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11562,7 +11552,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11570,13 +11560,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11584,7 +11574,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11592,13 +11582,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11606,7 +11596,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11615,13 +11605,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
